--- a/tests/data/expected/GSE192721.xlsx
+++ b/tests/data/expected/GSE192721.xlsx
@@ -6995,7 +6995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7277,144 +7277,180 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Viviane,,Gournay</t>
+          <t>Ting-Ting,,Yang</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>INSERM U976, PARIS, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nicolas,,Vallet</t>
+          <t>Ye,,Meng</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>INSERM U976, PARIS, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vivien,,Peux</t>
+          <t>De-Lin,,Kong</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>INSERM U976, PARIS, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kristi,,Vera</t>
+          <t>Guo-Qing,,Wei</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>INSERM U976, PARIS, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jennifer,,Bordenave</t>
+          <t>Ming-Ming,,Zhang</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>INSERM U976, PARIS, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Marion,,Lambert</t>
+          <t>Wen-Jun,,Wu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>INSERM UMR976, Paris, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aurelien,,Corneau</t>
+          <t>Ji-Min,,Shi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sorbonne Université, INSERM UMS037 PASS, Plateforme de Cytométrie (CyPS),, Paris, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>David,,Michonneau</t>
+          <t>Yi,,Luo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>INSERM UMR976, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Régis,,Peffault de Latour</t>
+          <t>Yan-Min,,Zhao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Saint-Louis, Paris, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sophie,,Caillat-Zucman</t>
+          <t>Jian,,Yu</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INSERM UMR976, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gerard,,Socié</t>
+          <t>Rui-Rui,,Jing</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INSERM UMR976, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mathieu F,,Chevalier</t>
+          <t>Meng-Yu,,Zhao</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>INSERM U976, PARIS, France.</t>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hou-Li,,Zhao</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>He,,Huang</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Yong-Xian,,Hu</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Bone Marrow Transplantation Center, The First Affiliated Hospital, Zhejiang University School of Medicine, Hangzhou, China.</t>
         </is>
       </c>
     </row>
@@ -12479,22 +12515,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gournay V||Vallet N||Peux V||Vera K||Bordenave J||Lambert M||Corneau A||Michonneau D||Peffault de Latour R||Caillat-Zucman S||Socié G||Chevalier MF</t>
+          <t>Yang TT||Meng Y||Kong DL||Wei GQ||Zhang MM||Wu WJ||Shi JM||Luo Y||Zhao YM||Yu J||Jing RR||Zhao MY||Zhao HL||Huang H||Hu YX</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Immune landscape after allo-HSCT: TIGIT and CD161-expressing CD4 T cells are associated with subsequent leukemia relapse.</t>
+          <t>Comparable outcomes in patients with B-cell acute lymphoblastic leukemia receiving haploidentical hematopoietic stem cell transplantation: Pretransplant minimal residual disease-negative complete remission following chimeric antigen receptor T-cell therapy versus chemotherapy.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.1182/blood.2022015522</t>
+          <t>10.3389/fimmu.2022.934442</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35820057</t>
+          <t>36110859</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
